--- a/www/IndicatorsPerCountry/CostaRica_GDPperCapita_TerritorialRef_1946_2012_CCode_188.xlsx
+++ b/www/IndicatorsPerCountry/CostaRica_GDPperCapita_TerritorialRef_1946_2012_CCode_188.xlsx
@@ -330,13 +330,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/CostaRica_GDPperCapita_TerritorialRef_1946_2012_CCode_188.xlsx
+++ b/www/IndicatorsPerCountry/CostaRica_GDPperCapita_TerritorialRef_1946_2012_CCode_188.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="114">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,271 +36,289 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1624</t>
-  </si>
-  <si>
-    <t>1553</t>
-  </si>
-  <si>
-    <t>1691</t>
-  </si>
-  <si>
-    <t>1527</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1665</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1636</t>
-  </si>
-  <si>
-    <t>1685</t>
-  </si>
-  <si>
-    <t>1582</t>
-  </si>
-  <si>
-    <t>1626</t>
-  </si>
-  <si>
-    <t>1575</t>
-  </si>
-  <si>
-    <t>1421</t>
-  </si>
-  <si>
-    <t>1660</t>
-  </si>
-  <si>
-    <t>1437</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>1876</t>
-  </si>
-  <si>
-    <t>1867</t>
-  </si>
-  <si>
-    <t>1763</t>
-  </si>
-  <si>
-    <t>1943</t>
-  </si>
-  <si>
-    <t>1688</t>
-  </si>
-  <si>
-    <t>1659</t>
-  </si>
-  <si>
-    <t>1459</t>
-  </si>
-  <si>
-    <t>1614</t>
-  </si>
-  <si>
-    <t>1759</t>
-  </si>
-  <si>
-    <t>2036</t>
-  </si>
-  <si>
-    <t>2095</t>
-  </si>
-  <si>
-    <t>2123</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>1951</t>
-  </si>
-  <si>
-    <t>2114</t>
-  </si>
-  <si>
-    <t>2353</t>
-  </si>
-  <si>
-    <t>2289</t>
-  </si>
-  <si>
-    <t>2460</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2605</t>
-  </si>
-  <si>
-    <t>2598</t>
-  </si>
-  <si>
-    <t>2715</t>
-  </si>
-  <si>
-    <t>2723</t>
-  </si>
-  <si>
-    <t>2785</t>
-  </si>
-  <si>
-    <t>2919</t>
-  </si>
-  <si>
-    <t>2961</t>
-  </si>
-  <si>
-    <t>3127</t>
-  </si>
-  <si>
-    <t>3258</t>
-  </si>
-  <si>
-    <t>3349</t>
-  </si>
-  <si>
-    <t>3497</t>
-  </si>
-  <si>
-    <t>3622</t>
-  </si>
-  <si>
-    <t>3754</t>
-  </si>
-  <si>
-    <t>3889</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>4319</t>
-  </si>
-  <si>
-    <t>4430</t>
-  </si>
-  <si>
-    <t>4396</t>
-  </si>
-  <si>
-    <t>4506</t>
-  </si>
-  <si>
-    <t>4769</t>
-  </si>
-  <si>
-    <t>4870</t>
-  </si>
-  <si>
-    <t>4959</t>
-  </si>
-  <si>
-    <t>4911</t>
-  </si>
-  <si>
-    <t>4681</t>
-  </si>
-  <si>
-    <t>4235</t>
-  </si>
-  <si>
-    <t>4230</t>
-  </si>
-  <si>
-    <t>4432</t>
+    <t>2589</t>
+  </si>
+  <si>
+    <t>2475</t>
+  </si>
+  <si>
+    <t>2695</t>
+  </si>
+  <si>
+    <t>2434</t>
+  </si>
+  <si>
+    <t>2724</t>
+  </si>
+  <si>
+    <t>2654</t>
+  </si>
+  <si>
+    <t>2872</t>
+  </si>
+  <si>
+    <t>2608</t>
+  </si>
+  <si>
+    <t>2686</t>
+  </si>
+  <si>
+    <t>2522</t>
+  </si>
+  <si>
+    <t>2592</t>
+  </si>
+  <si>
+    <t>2511</t>
+  </si>
+  <si>
+    <t>2265</t>
+  </si>
+  <si>
+    <t>2646</t>
+  </si>
+  <si>
+    <t>2291</t>
+  </si>
+  <si>
+    <t>2550</t>
+  </si>
+  <si>
+    <t>2990</t>
+  </si>
+  <si>
+    <t>2976</t>
+  </si>
+  <si>
+    <t>2810</t>
+  </si>
+  <si>
+    <t>3097</t>
+  </si>
+  <si>
+    <t>2691</t>
+  </si>
+  <si>
+    <t>2644</t>
+  </si>
+  <si>
+    <t>2326</t>
+  </si>
+  <si>
+    <t>2573</t>
+  </si>
+  <si>
+    <t>2804</t>
+  </si>
+  <si>
+    <t>3245</t>
+  </si>
+  <si>
+    <t>3339</t>
+  </si>
+  <si>
+    <t>3384</t>
+  </si>
+  <si>
+    <t>3129</t>
+  </si>
+  <si>
+    <t>3110</t>
+  </si>
+  <si>
+    <t>3370</t>
+  </si>
+  <si>
+    <t>3751</t>
+  </si>
+  <si>
+    <t>3649</t>
+  </si>
+  <si>
+    <t>3921</t>
+  </si>
+  <si>
+    <t>3668</t>
+  </si>
+  <si>
+    <t>3835</t>
+  </si>
+  <si>
+    <t>4152</t>
+  </si>
+  <si>
+    <t>4141</t>
+  </si>
+  <si>
+    <t>4328</t>
   </si>
   <si>
     <t>4340</t>
   </si>
   <si>
-    <t>4446</t>
-  </si>
-  <si>
-    <t>4530</t>
-  </si>
-  <si>
-    <t>4561</t>
-  </si>
-  <si>
-    <t>4698</t>
-  </si>
-  <si>
-    <t>4746.99225021</t>
-  </si>
-  <si>
-    <t>4745.08316086</t>
-  </si>
-  <si>
-    <t>5056.19316301</t>
-  </si>
-  <si>
-    <t>5284.0038887</t>
-  </si>
-  <si>
-    <t>5377.58976254</t>
-  </si>
-  <si>
-    <t>5436.68640083</t>
-  </si>
-  <si>
-    <t>5343.3119526</t>
-  </si>
-  <si>
-    <t>5502.38842975</t>
-  </si>
-  <si>
-    <t>5822.47016966</t>
-  </si>
-  <si>
-    <t>6157.89459852</t>
-  </si>
-  <si>
-    <t>6135.72161673</t>
-  </si>
-  <si>
-    <t>6086.33738249</t>
-  </si>
-  <si>
-    <t>6162.1404124</t>
-  </si>
-  <si>
-    <t>6455.8569266</t>
-  </si>
-  <si>
-    <t>6628.77855517</t>
-  </si>
-  <si>
-    <t>6915.58854518</t>
-  </si>
-  <si>
-    <t>7415.13538295</t>
-  </si>
-  <si>
-    <t>7890.16353373</t>
-  </si>
-  <si>
-    <t>7990.36124858</t>
-  </si>
-  <si>
-    <t>7777.7864957</t>
-  </si>
-  <si>
-    <t>7996.77800997</t>
+    <t>4439</t>
+  </si>
+  <si>
+    <t>4653</t>
+  </si>
+  <si>
+    <t>4720</t>
+  </si>
+  <si>
+    <t>4983</t>
+  </si>
+  <si>
+    <t>5193</t>
+  </si>
+  <si>
+    <t>5338</t>
+  </si>
+  <si>
+    <t>5574</t>
+  </si>
+  <si>
+    <t>5773</t>
+  </si>
+  <si>
+    <t>5984</t>
+  </si>
+  <si>
+    <t>6199</t>
+  </si>
+  <si>
+    <t>6564</t>
+  </si>
+  <si>
+    <t>6884</t>
+  </si>
+  <si>
+    <t>7061</t>
+  </si>
+  <si>
+    <t>7007</t>
+  </si>
+  <si>
+    <t>7182</t>
+  </si>
+  <si>
+    <t>7602</t>
+  </si>
+  <si>
+    <t>7763</t>
+  </si>
+  <si>
+    <t>7905</t>
+  </si>
+  <si>
+    <t>7828</t>
+  </si>
+  <si>
+    <t>7461</t>
+  </si>
+  <si>
+    <t>6751</t>
+  </si>
+  <si>
+    <t>6743</t>
+  </si>
+  <si>
+    <t>7065</t>
+  </si>
+  <si>
+    <t>6918</t>
+  </si>
+  <si>
+    <t>7087</t>
+  </si>
+  <si>
+    <t>7221</t>
+  </si>
+  <si>
+    <t>7270</t>
+  </si>
+  <si>
+    <t>7489</t>
+  </si>
+  <si>
+    <t>7567</t>
+  </si>
+  <si>
+    <t>7552.36223031314</t>
+  </si>
+  <si>
+    <t>8038.76775758544</t>
+  </si>
+  <si>
+    <t>8363.48296920179</t>
+  </si>
+  <si>
+    <t>8479.56866068378</t>
+  </si>
+  <si>
+    <t>8576.42239655139</t>
+  </si>
+  <si>
+    <t>8446.78124456268</t>
+  </si>
+  <si>
+    <t>8683.94846275007</t>
+  </si>
+  <si>
+    <t>9053.85162450334</t>
+  </si>
+  <si>
+    <t>9183.89504496481</t>
+  </si>
+  <si>
+    <t>9319.76618884734</t>
+  </si>
+  <si>
+    <t>9451.61527423279</t>
+  </si>
+  <si>
+    <t>9591.55331784741</t>
+  </si>
+  <si>
+    <t>9831.24960233995</t>
+  </si>
+  <si>
+    <t>10086.7836653535</t>
+  </si>
+  <si>
+    <t>10308.3740618732</t>
+  </si>
+  <si>
+    <t>10880.476701231</t>
+  </si>
+  <si>
+    <t>11584.6766598599</t>
+  </si>
+  <si>
+    <t>11935.1577856167</t>
+  </si>
+  <si>
+    <t>11638.0018944272</t>
+  </si>
+  <si>
+    <t>12031.5709094675</t>
+  </si>
+  <si>
+    <t>12366</t>
+  </si>
+  <si>
+    <t>12792</t>
+  </si>
+  <si>
+    <t>12916</t>
+  </si>
+  <si>
+    <t>13222</t>
+  </si>
+  <si>
+    <t>13677</t>
+  </si>
+  <si>
+    <t>14098</t>
   </si>
   <si>
     <t>Description</t>
@@ -1951,6 +1969,108 @@
         <v>95</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1966,50 +2086,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
